--- a/bots/crawl_ch/output/electronics_2022-09-13.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-09-13.xlsx
@@ -531,24 +531,24 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6579165</t>
+          <t>6805078</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
+          <t>Varta Premium Light F20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-premium-light-f20/p/6805078</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -558,12 +558,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>44.95</t>
+          <t>39.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -572,34 +572,34 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 25% Aktion 44.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
+          <t>Varta Premium Light F20 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6805078</t>
+          <t>6579165</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Varta Premium Light F20</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-premium-light-f20/p/6805078</t>
+          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -609,12 +609,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>44.95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -623,17 +623,17 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Varta Premium Light F20 39.95 Schweizer Franken</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 25% Aktion 44.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-09-13 07:34:29</t>
+          <t>2022-09-13 21:01:02</t>
         </is>
       </c>
     </row>
